--- a/data/EnergyProjection.xlsx
+++ b/data/EnergyProjection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarlaC\Dropbox (Cambridge University)\CCG\Electricity and material demand model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarlaC\MAT-DP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB1EAE3-5723-40DC-860C-A9A1A5604D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E06D58-739A-409C-84ED-3EC81BE6C50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{8982DFF8-0355-3B4C-8CB5-E6194A207216}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" xr2:uid="{8982DFF8-0355-3B4C-8CB5-E6194A207216}"/>
   </bookViews>
   <sheets>
     <sheet name="All countries" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="75">
   <si>
     <t>Solar</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>2010_e</t>
+  </si>
+  <si>
+    <t>Coal CCS</t>
   </si>
 </sst>
 </file>
@@ -2801,10 +2804,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2822,7 +2825,7 @@
     <col min="17" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="E1" s="63">
         <v>7</v>
       </c>
@@ -2865,8 +2868,11 @@
       <c r="R1" s="63">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="20.25">
+      <c r="S1" s="63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20.25">
       <c r="D2" s="61" t="s">
         <v>57</v>
       </c>
@@ -2912,8 +2918,11 @@
       <c r="R2" s="64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="123.75" thickBot="1">
+      <c r="S2" s="64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="123.75" thickBot="1">
       <c r="B3" s="68" t="s">
         <v>20</v>
       </c>
@@ -2965,8 +2974,11 @@
       <c r="R3" s="70" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="20.25">
+      <c r="S3" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20.25">
       <c r="A4" s="65" t="str">
         <f>"Projection ("&amp;D4&amp;")"</f>
         <v>Projection (Uganda)</v>
@@ -2979,7 +2991,7 @@
         <v>63</v>
       </c>
       <c r="E4" s="66">
-        <f t="shared" ref="E4:R19" ca="1" si="0">IF($C4="",VLOOKUP($B4,INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE),VLOOKUP($C4,INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE))</f>
+        <f t="shared" ref="E4:S11" ca="1" si="0">IF($C4="",VLOOKUP($B4,INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE),VLOOKUP($C4,INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE))</f>
         <v>28330000</v>
       </c>
       <c r="F4" s="66">
@@ -3034,10 +3046,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="20.25">
+      <c r="S4" s="66" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20.25">
       <c r="A5" s="65" t="str">
-        <f t="shared" ref="A5:A20" si="1">"Projection ("&amp;D5&amp;")"</f>
+        <f t="shared" ref="A5:A11" si="1">"Projection ("&amp;D5&amp;")"</f>
         <v>Projection (Uganda)</v>
       </c>
       <c r="B5" s="69">
@@ -3105,8 +3121,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="20.25">
+      <c r="S5" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="20.25">
       <c r="A6" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -3174,8 +3194,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="20.25">
+      <c r="S6" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="20.25">
       <c r="A7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -3245,8 +3269,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="20.25">
+      <c r="S7" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="20.25">
       <c r="A8" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -3316,8 +3344,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="20.25">
+      <c r="S8" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="20.25">
       <c r="A9" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -3387,8 +3419,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="20.25">
+      <c r="S9" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="20.25">
       <c r="A10" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -3458,8 +3494,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="20.25">
+      <c r="S10" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="20.25">
       <c r="A11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (Kenya)</v>
@@ -3525,8 +3565,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="20.25">
+      <c r="S11" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="20.25">
       <c r="A12" s="65"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
@@ -3546,7 +3590,7 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
     </row>
-    <row r="13" spans="1:18" ht="20.25">
+    <row r="13" spans="1:19" ht="20.25">
       <c r="A13" s="65"/>
       <c r="B13" s="69"/>
       <c r="C13" s="69"/>
@@ -3566,7 +3610,7 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
     </row>
-    <row r="14" spans="1:18" ht="20.25">
+    <row r="14" spans="1:19" ht="20.25">
       <c r="A14" s="65"/>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
@@ -3586,7 +3630,7 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
     </row>
-    <row r="15" spans="1:18" ht="20.25">
+    <row r="15" spans="1:19" ht="20.25">
       <c r="A15" s="65"/>
       <c r="B15" s="69"/>
       <c r="C15" s="69"/>
@@ -3606,7 +3650,7 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
     </row>
-    <row r="16" spans="1:18" ht="20.25">
+    <row r="16" spans="1:19" ht="20.25">
       <c r="A16" s="65"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
@@ -3717,10 +3761,10 @@
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3738,7 +3782,7 @@
     <col min="17" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="E1" s="63">
         <v>7</v>
       </c>
@@ -3781,8 +3825,11 @@
       <c r="R1" s="63">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="20.25">
+      <c r="S1" s="63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20.25">
       <c r="D2" s="61" t="s">
         <v>57</v>
       </c>
@@ -3828,8 +3875,11 @@
       <c r="R2" s="64" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="123.75" thickBot="1">
+      <c r="S2" s="64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="123.75" thickBot="1">
       <c r="B3" s="68" t="s">
         <v>20</v>
       </c>
@@ -3881,8 +3931,11 @@
       <c r="R3" s="70" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="20.25">
+      <c r="S3" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20.25">
       <c r="A4" s="65" t="str">
         <f>"Projection ("&amp;D4&amp;")"</f>
         <v>Projection (Uganda)</v>
@@ -3899,7 +3952,7 @@
         <v>5666000</v>
       </c>
       <c r="F4" s="66">
-        <f t="shared" ref="F4:R11" ca="1" si="0">IF($C4="",VLOOKUP($B4&amp;"_e",INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),F$1,FALSE),VLOOKUP($C4&amp;"_e",INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),F$1,FALSE))</f>
+        <f t="shared" ref="F4:S11" ca="1" si="0">IF($C4="",VLOOKUP($B4&amp;"_e",INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),F$1,FALSE),VLOOKUP($C4&amp;"_e",INDIRECT("'"&amp;$A4&amp;"'"&amp;"!$B$2:$P$61"),F$1,FALSE))</f>
         <v>0</v>
       </c>
       <c r="G4" s="66">
@@ -3950,8 +4003,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="20.25">
+      <c r="S4" s="66" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="20.25">
       <c r="A5" s="65" t="str">
         <f t="shared" ref="A5:A11" si="1">"Projection ("&amp;D5&amp;")"</f>
         <v>Projection (Uganda)</v>
@@ -4021,8 +4078,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="20.25">
+      <c r="S5" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="20.25">
       <c r="A6" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -4035,7 +4096,7 @@
         <v>62</v>
       </c>
       <c r="E6" s="67">
-        <f t="shared" ref="E5:E11" ca="1" si="2">IF($C6="",VLOOKUP($B6&amp;"_e",INDIRECT("'"&amp;$A6&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE),VLOOKUP($C6&amp;"_e",INDIRECT("'"&amp;$A6&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE))</f>
+        <f t="shared" ref="E6:E11" ca="1" si="2">IF($C6="",VLOOKUP($B6&amp;"_e",INDIRECT("'"&amp;$A6&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE),VLOOKUP($C6&amp;"_e",INDIRECT("'"&amp;$A6&amp;"'"&amp;"!$B$2:$P$61"),E$1,FALSE))</f>
         <v>6371768505.7799997</v>
       </c>
       <c r="F6" s="67">
@@ -4090,8 +4151,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="20.25">
+      <c r="S6" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="20.25">
       <c r="A7" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -4161,8 +4226,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="20.25">
+      <c r="S7" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="20.25">
       <c r="A8" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -4232,8 +4301,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="20.25">
+      <c r="S8" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="20.25">
       <c r="A9" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -4303,8 +4376,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="20.25">
+      <c r="S9" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="20.25">
       <c r="A10" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (UK)</v>
@@ -4374,8 +4451,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="20.25">
+      <c r="S10" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="20.25">
       <c r="A11" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Projection (Kenya)</v>
@@ -4441,8 +4522,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="20.25">
+      <c r="S11" s="67" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="20.25">
       <c r="A12" s="65"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
@@ -4462,7 +4547,7 @@
       <c r="Q12" s="62"/>
       <c r="R12" s="62"/>
     </row>
-    <row r="13" spans="1:18" ht="20.25">
+    <row r="13" spans="1:19" ht="20.25">
       <c r="A13" s="65"/>
       <c r="B13" s="69"/>
       <c r="C13" s="69"/>
@@ -4482,7 +4567,7 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
     </row>
-    <row r="14" spans="1:18" ht="20.25">
+    <row r="14" spans="1:19" ht="20.25">
       <c r="A14" s="65"/>
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
@@ -4502,7 +4587,7 @@
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
     </row>
-    <row r="15" spans="1:18" ht="20.25">
+    <row r="15" spans="1:19" ht="20.25">
       <c r="A15" s="65"/>
       <c r="B15" s="69"/>
       <c r="C15" s="69"/>
@@ -4522,7 +4607,7 @@
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
     </row>
-    <row r="16" spans="1:18" ht="20.25">
+    <row r="16" spans="1:19" ht="20.25">
       <c r="A16" s="65"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
@@ -4813,47 +4898,47 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f>H3*$S$4</f>
+        <f t="shared" ref="H4:O4" si="1">H3*$S$4</f>
         <v>28.330000000000002</v>
       </c>
       <c r="I4" s="5">
-        <f>I3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>1529.8200000000002</v>
       </c>
       <c r="J4" s="5">
-        <f>J3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>906.56000000000006</v>
       </c>
       <c r="K4" s="5">
-        <f>K3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>254.97</v>
       </c>
       <c r="L4" s="5">
-        <f>L3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <f>M3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f>N3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>113.32000000000001</v>
       </c>
       <c r="O4" s="5">
-        <f>O3*$S$4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:R4" si="1">P3*$S$4</f>
+        <f t="shared" ref="P4:R4" si="2">P3*$S$4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4" s="9">
@@ -4867,55 +4952,55 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:G5" si="2">F4*$U$3</f>
+        <f t="shared" ref="F5:G5" si="3">F4*$U$3</f>
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <f>H4*$U$3</f>
+        <f t="shared" ref="H5:O5" si="4">H4*$U$3</f>
         <v>5.6660000000000004</v>
       </c>
       <c r="I5" s="5">
-        <f>I4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>305.96400000000006</v>
       </c>
       <c r="J5" s="5">
-        <f>J4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>181.31200000000001</v>
       </c>
       <c r="K5" s="5">
-        <f>K4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>50.994</v>
       </c>
       <c r="L5" s="5">
-        <f>L4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5" s="5">
-        <f>M4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5" s="5">
-        <f>N4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>22.664000000000001</v>
       </c>
       <c r="O5" s="5">
-        <f>O4*$U$3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" ref="P5:R5" si="3">P4*$U$3</f>
+        <f t="shared" ref="P5:R5" si="5">P4*$U$3</f>
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S5" s="9">
@@ -4929,23 +5014,23 @@
         <v>7</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6:K6" si="4">H4/1000</f>
+        <f t="shared" ref="H6:K6" si="6">H4/1000</f>
         <v>2.8330000000000001E-2</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5298200000000002</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.90656000000000003</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.25496999999999997</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6" si="5">L4/1000</f>
+        <f t="shared" ref="L6" si="7">L4/1000</f>
         <v>0</v>
       </c>
       <c r="M6" s="5">
@@ -4961,15 +5046,15 @@
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" ref="P6:R6" si="6">P4/1000</f>
+        <f t="shared" ref="P6:R6" si="8">P4/1000</f>
         <v>0</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S6" s="9">
@@ -4989,55 +5074,55 @@
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:G7" si="7">F4*10^6</f>
+        <f t="shared" ref="F7:G7" si="9">F4*10^6</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7:K7" si="8">H4*10^6</f>
+        <f t="shared" ref="H7:K7" si="10">H4*10^6</f>
         <v>28330000</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1529820000.0000002</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>906560000</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>254970000</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" ref="L7" si="9">L4*10^6</f>
+        <f t="shared" ref="L7" si="11">L4*10^6</f>
         <v>0</v>
       </c>
       <c r="M7" s="5">
-        <f>M4*10^6</f>
+        <f t="shared" ref="M7:O8" si="12">M4*10^6</f>
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f>N4*10^6</f>
+        <f t="shared" si="12"/>
         <v>113320000</v>
       </c>
       <c r="O7" s="5">
-        <f>O4*10^6</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" ref="P7:R7" si="10">P4*10^6</f>
+        <f t="shared" ref="P7:R7" si="13">P4*10^6</f>
         <v>0</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S7" s="9">
@@ -5054,55 +5139,55 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:G8" si="11">F5*10^6</f>
+        <f t="shared" ref="F8:G8" si="14">F5*10^6</f>
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H8:K8" si="12">H5*10^6</f>
+        <f t="shared" ref="H8:K8" si="15">H5*10^6</f>
         <v>5666000</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="15"/>
+        <v>305964000.00000006</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="15"/>
+        <v>181312000</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="15"/>
+        <v>50994000</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8" si="16">L5*10^6</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
         <f t="shared" si="12"/>
-        <v>305964000.00000006</v>
-      </c>
-      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <f t="shared" si="12"/>
-        <v>181312000</v>
-      </c>
-      <c r="K8" s="5">
+        <v>22664000</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="12"/>
-        <v>50994000</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" ref="L8" si="13">L5*10^6</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <f>M5*10^6</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <f>N5*10^6</f>
-        <v>22664000</v>
-      </c>
-      <c r="O8" s="5">
-        <f>O5*10^6</f>
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P8:R8" si="14">P5*10^6</f>
+        <f t="shared" ref="P8:R8" si="17">P5*10^6</f>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S8" s="5">
@@ -5157,55 +5242,55 @@
         <v>2618</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10:G10" si="15">F9*$S$10</f>
+        <f t="shared" ref="F10:G10" si="18">F9*$S$10</f>
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f>H9*$S$10</f>
+        <f t="shared" ref="H10:O10" si="19">H9*$S$10</f>
         <v>119</v>
       </c>
       <c r="I10" s="5">
-        <f>I9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>7140</v>
       </c>
       <c r="J10" s="5">
-        <f>J9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>952</v>
       </c>
       <c r="K10" s="5">
-        <f>K9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>10948</v>
       </c>
       <c r="L10" s="5">
-        <f>L9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <f>M9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N10" s="5">
-        <f>N9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>2142</v>
       </c>
       <c r="O10" s="5">
-        <f>O9*$S$10</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" ref="P10:R10" si="16">P9*$S$10</f>
+        <f t="shared" ref="P10:R10" si="20">P9*$S$10</f>
         <v>0</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S10" s="9">
@@ -5220,55 +5305,55 @@
         <v>523.6</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11:G11" si="17">$U$3*F10</f>
+        <f t="shared" ref="F11:G11" si="21">$U$3*F10</f>
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f>$U$3*H10</f>
+        <f t="shared" ref="H11:O11" si="22">$U$3*H10</f>
         <v>23.8</v>
       </c>
       <c r="I11" s="5">
-        <f>$U$3*I10</f>
+        <f t="shared" si="22"/>
         <v>1428</v>
       </c>
       <c r="J11" s="5">
-        <f>$U$3*J10</f>
+        <f t="shared" si="22"/>
         <v>190.4</v>
       </c>
       <c r="K11" s="5">
-        <f>$U$3*K10</f>
+        <f t="shared" si="22"/>
         <v>2189.6</v>
       </c>
       <c r="L11" s="5">
-        <f>$U$3*L10</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f>$U$3*M10</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <f>$U$3*N10</f>
+        <f t="shared" si="22"/>
         <v>428.40000000000003</v>
       </c>
       <c r="O11" s="5">
-        <f>$U$3*O10</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:R11" si="18">$U$3*P10</f>
+        <f t="shared" ref="P11:R11" si="23">$U$3*P10</f>
         <v>0</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S11" s="9">
@@ -5286,31 +5371,31 @@
         <v>2.6179999999999999</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:G12" si="19">F10/1000</f>
+        <f t="shared" ref="F12:G12" si="24">F10/1000</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12:K12" si="20">H10/1000</f>
+        <f t="shared" ref="H12:K12" si="25">H10/1000</f>
         <v>0.11899999999999999</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>7.14</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0.95199999999999996</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>10.948</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ref="L12" si="21">L10/1000</f>
+        <f t="shared" ref="L12" si="26">L10/1000</f>
         <v>0</v>
       </c>
       <c r="M12" s="2">
@@ -5326,15 +5411,15 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:R12" si="22">P10/1000</f>
+        <f t="shared" ref="P12:R12" si="27">P10/1000</f>
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S12" s="10">
@@ -5354,31 +5439,31 @@
         <v>2618000000</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ref="F13:G13" si="23">F10*10^6</f>
+        <f t="shared" ref="F13:G13" si="28">F10*10^6</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ref="H13:K13" si="24">H10*10^6</f>
+        <f t="shared" ref="H13:K13" si="29">H10*10^6</f>
         <v>119000000</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>7140000000</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>952000000</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>10948000000</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13" si="25">L10*10^6</f>
+        <f t="shared" ref="L13" si="30">L10*10^6</f>
         <v>0</v>
       </c>
       <c r="M13" s="2">
@@ -5394,15 +5479,15 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:R13" si="26">P10*10^6</f>
+        <f t="shared" ref="P13:R13" si="31">P10*10^6</f>
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S13" s="10">
@@ -5419,55 +5504,55 @@
         <v>523600000</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14:G14" si="27">$U$3*F13</f>
+        <f t="shared" ref="F14:G14" si="32">$U$3*F13</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <f>$U$3*H13</f>
+        <f t="shared" ref="H14:O14" si="33">$U$3*H13</f>
         <v>23800000</v>
       </c>
       <c r="I14" s="2">
-        <f>$U$3*I13</f>
+        <f t="shared" si="33"/>
         <v>1428000000</v>
       </c>
       <c r="J14" s="2">
-        <f>$U$3*J13</f>
+        <f t="shared" si="33"/>
         <v>190400000</v>
       </c>
       <c r="K14" s="2">
-        <f>$U$3*K13</f>
+        <f t="shared" si="33"/>
         <v>2189600000</v>
       </c>
       <c r="L14" s="2">
-        <f>$U$3*L13</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <f>$U$3*M13</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <f>$U$3*N13</f>
+        <f t="shared" si="33"/>
         <v>428400000</v>
       </c>
       <c r="O14" s="2">
-        <f>$U$3*O13</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" ref="P14:R14" si="28">$U$3*P13</f>
+        <f t="shared" ref="P14:R14" si="34">$U$3*P13</f>
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S14" s="10">
@@ -5488,11 +5573,11 @@
         <v>2618</v>
       </c>
       <c r="F16" s="11" t="e">
-        <f t="shared" ref="F16:G16" si="29">(F10-F4)/F4</f>
+        <f t="shared" ref="F16:G16" si="35">(F10-F4)/F4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="11" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H16" s="11">
@@ -5500,19 +5585,19 @@
         <v>3.2004941757853862</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" ref="I16:K16" si="30">(I10-I4)/I4</f>
+        <f t="shared" ref="I16:K16" si="36">(I10-I4)/I4</f>
         <v>3.6672157508726513</v>
       </c>
       <c r="J16" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>5.0123543946346563E-2</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>41.938384908028397</v>
       </c>
       <c r="L16" s="11" t="e">
-        <f t="shared" ref="L16" si="31">(L10-L4)/L4</f>
+        <f t="shared" ref="L16" si="37">(L10-L4)/L4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="11">
@@ -5523,19 +5608,19 @@
         <v>17.902223791034238</v>
       </c>
       <c r="O16" s="11" t="e">
-        <f t="shared" ref="O16:R16" si="32">(O10-O4)/O4</f>
+        <f t="shared" ref="O16:R16" si="38">(O10-O4)/O4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="11" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" s="11" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="11" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5755,59 +5840,59 @@
         <v>6</v>
       </c>
       <c r="E4" s="5">
-        <f>E3*$S$4</f>
+        <f t="shared" ref="E4:O4" si="0">E3*$S$4</f>
         <v>11786.593540000002</v>
       </c>
       <c r="F4" s="5">
-        <f>F3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f>G3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>33653.837747300058</v>
       </c>
       <c r="H4" s="5">
-        <f>H3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>31858.842528899997</v>
       </c>
       <c r="I4" s="5">
-        <f>I3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f>J3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f>K3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>112405.358107069</v>
       </c>
       <c r="L4" s="5">
-        <f>L3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <f>M3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>61336.345500000032</v>
       </c>
       <c r="N4" s="5">
-        <f>N3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f>O3*$S$4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:R4" si="0">P3*$S$4</f>
+        <f t="shared" ref="P4:R4" si="1">P3*$S$4</f>
         <v>21023.157996000002</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S4" s="9">
@@ -5820,59 +5905,59 @@
       <c r="B5" s="58"/>
       <c r="C5" s="59"/>
       <c r="E5" s="5">
-        <f>E4*$U$3</f>
+        <f t="shared" ref="E5:O5" si="2">E4*$U$3</f>
         <v>2357.3187080000002</v>
       </c>
       <c r="F5" s="5">
-        <f>F4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <f>G4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>6730.7675494600117</v>
       </c>
       <c r="H5" s="5">
-        <f>H4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>6371.7685057799999</v>
       </c>
       <c r="I5" s="5">
-        <f>I4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <f>J4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="5">
-        <f>K4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>22481.071621413801</v>
       </c>
       <c r="L5" s="5">
-        <f>L4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M5" s="5">
-        <f>M4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>12267.269100000007</v>
       </c>
       <c r="N5" s="5">
-        <f>N4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <f>O4*$U$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" ref="P5:R5" si="1">P4*$U$3</f>
+        <f t="shared" ref="P5:R5" si="3">P4*$U$3</f>
         <v>4204.6315992000009</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S5" s="9">
@@ -5888,51 +5973,51 @@
         <v>7</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:O6" si="2">G4/1000</f>
+        <f t="shared" ref="G6:O6" si="4">G4/1000</f>
         <v>33.653837747300059</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" ref="H6" si="3">H4/1000</f>
+        <f t="shared" ref="H6" si="5">H4/1000</f>
         <v>31.858842528899999</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112.40535810706899</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6" si="4">L4/1000</f>
+        <f t="shared" ref="L6" si="6">L4/1000</f>
         <v>0</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61.336345500000036</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" ref="P6:R6" si="5">P4/1000</f>
+        <f t="shared" ref="P6:R6" si="7">P4/1000</f>
         <v>21.023157996000002</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S6" s="9">
@@ -5958,51 +6043,51 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:S8" si="6">G4*10^6</f>
+        <f t="shared" ref="G7:S8" si="8">G4*10^6</f>
         <v>33653837747.300056</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" ref="H7" si="7">H4*10^6</f>
+        <f t="shared" ref="H7" si="9">H4*10^6</f>
         <v>31858842528.899998</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>112405358107.069</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" ref="L7" si="8">L4*10^6</f>
+        <f t="shared" ref="L7" si="10">L4*10^6</f>
         <v>0</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61336345500.000031</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" ref="P7:R7" si="9">P4*10^6</f>
+        <f t="shared" ref="P7:R7" si="11">P4*10^6</f>
         <v>21023157996</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S7" s="9">
@@ -6025,55 +6110,55 @@
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6730767549.4600115</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H8" si="10">H5*10^6</f>
+        <f t="shared" ref="H8" si="12">H5*10^6</f>
         <v>6371768505.7799997</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22481071621.413799</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" ref="L8" si="11">L5*10^6</f>
+        <f t="shared" ref="L8" si="13">L5*10^6</f>
         <v>0</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12267269100.000008</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P8:R8" si="12">P5*10^6</f>
+        <f t="shared" ref="P8:R8" si="14">P5*10^6</f>
         <v>4204631599.2000008</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54412827083.853821</v>
       </c>
     </row>
@@ -6152,59 +6237,59 @@
         <v>6</v>
       </c>
       <c r="E10" s="5">
-        <f>E9*$S$10</f>
+        <f t="shared" ref="E10:O10" si="15">E9*$S$10</f>
         <v>64469.996200300011</v>
       </c>
       <c r="F10" s="5">
-        <f>F9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <f>G9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>308392.58670199919</v>
       </c>
       <c r="H10" s="5">
-        <f>H9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>107988.88129439994</v>
       </c>
       <c r="I10" s="5">
-        <f>I9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <f>J9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K10" s="5">
-        <f>K9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f>L9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M10" s="5">
-        <f>M9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>101120.24060000005</v>
       </c>
       <c r="N10" s="5">
-        <f>N9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f>O9*$S$10</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" ref="P10:R10" si="13">P9*$S$10</f>
+        <f t="shared" ref="P10:R10" si="16">P9*$S$10</f>
         <v>1535.0832925999998</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>55261.583999999952</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7892.1552805000001</v>
       </c>
       <c r="S10" s="9">
@@ -6218,59 +6303,59 @@
       <c r="C11" s="58"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5">
-        <f>$U$3*E10</f>
+        <f t="shared" ref="E11:O11" si="17">$U$3*E10</f>
         <v>12893.999240060002</v>
       </c>
       <c r="F11" s="5">
-        <f>$U$3*F10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <f>$U$3*G10</f>
+        <f t="shared" si="17"/>
         <v>61678.517340399841</v>
       </c>
       <c r="H11" s="5">
-        <f>$U$3*H10</f>
+        <f t="shared" si="17"/>
         <v>21597.776258879989</v>
       </c>
       <c r="I11" s="5">
-        <f>$U$3*I10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f>$U$3*J10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <f>$U$3*K10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <f>$U$3*L10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M11" s="5">
-        <f>$U$3*M10</f>
+        <f t="shared" si="17"/>
         <v>20224.04812000001</v>
       </c>
       <c r="N11" s="5">
-        <f>$U$3*N10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <f>$U$3*O10</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" ref="P11:R11" si="14">$U$3*P10</f>
+        <f t="shared" ref="P11:R11" si="18">$U$3*P10</f>
         <v>307.01665851999996</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11052.316799999991</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1578.4310561000002</v>
       </c>
       <c r="S11" s="9">
@@ -6294,51 +6379,51 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:O12" si="15">G10/1000</f>
+        <f t="shared" ref="G12:O12" si="19">G10/1000</f>
         <v>308.39258670199916</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12" si="16">H10/1000</f>
+        <f t="shared" ref="H12" si="20">H10/1000</f>
         <v>107.98888129439993</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" ref="L12" si="17">L10/1000</f>
+        <f t="shared" ref="L12" si="21">L10/1000</f>
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>101.12024060000005</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:R12" si="18">P10/1000</f>
+        <f t="shared" ref="P12:R12" si="22">P10/1000</f>
         <v>1.5350832925999998</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>55.261583999999949</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7.8921552804999999</v>
       </c>
       <c r="S12" s="9">
@@ -6366,51 +6451,51 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" ref="G13:S13" si="19">G10*10^6</f>
+        <f t="shared" ref="G13:O13" si="23">G10*10^6</f>
         <v>308392586701.99921</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" ref="H13" si="20">H10*10^6</f>
+        <f t="shared" ref="H13" si="24">H10*10^6</f>
         <v>107988881294.39993</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13" si="21">L10*10^6</f>
+        <f t="shared" ref="L13" si="25">L10*10^6</f>
         <v>0</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>101120240600.00005</v>
       </c>
       <c r="N13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:R13" si="22">P10*10^6</f>
+        <f t="shared" ref="P13:R13" si="26">P10*10^6</f>
         <v>1535083292.5999999</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>55261583999.999954</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>7892155280.5</v>
       </c>
       <c r="S13" s="10">
@@ -6441,43 +6526,43 @@
         <v>21597776258.87999</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" ref="I14:S14" si="23">$U$3*I13</f>
+        <f t="shared" ref="I14:O14" si="27">$U$3*I13</f>
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <f t="shared" ref="L14" si="24">$U$3*L13</f>
+        <f t="shared" ref="L14" si="28">$U$3*L13</f>
         <v>0</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>20224048120.000011</v>
       </c>
       <c r="N14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" ref="P14:R14" si="25">$U$3*P13</f>
+        <f t="shared" ref="P14:R14" si="29">$U$3*P13</f>
         <v>307016658.51999998</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>11052316799.999992</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1578431056.1000001</v>
       </c>
       <c r="S14" s="10">
@@ -6514,19 +6599,19 @@
         <v>2.3896046661594932</v>
       </c>
       <c r="I16" s="11" t="e">
-        <f t="shared" ref="I16:R16" si="26">(I10-I4)/I4</f>
+        <f t="shared" ref="I16:R16" si="30">(I10-I4)/I4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-1</v>
       </c>
       <c r="L16" s="11" t="e">
-        <f t="shared" ref="L16" si="27">(L10-L4)/L4</f>
+        <f t="shared" ref="L16" si="31">(L10-L4)/L4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="11">
@@ -6534,23 +6619,23 @@
         <v>0.64861860901054169</v>
       </c>
       <c r="N16" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>-0.92698131779763659</v>
       </c>
       <c r="Q16" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R16" s="11" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S16" s="11"/>
@@ -6644,51 +6729,51 @@
         <v>0</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" ref="G19:R19" si="28">G18*$S$19</f>
+        <f t="shared" ref="G19:R19" si="32">G18*$S$19</f>
         <v>33653.837747300058</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>31858.842528899997</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>112405.358107069</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>61336.345500000032</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>21023.157996000002</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S19" s="9">
@@ -6703,59 +6788,59 @@
       <c r="C20" s="58"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5">
-        <f>E19*$U$3</f>
+        <f t="shared" ref="E20:O20" si="33">E19*$U$3</f>
         <v>2357.3187080000002</v>
       </c>
       <c r="F20" s="5">
-        <f>F19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G20" s="5">
-        <f>G19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>6730.7675494600117</v>
       </c>
       <c r="H20" s="5">
-        <f>H19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>6371.7685057799999</v>
       </c>
       <c r="I20" s="5">
-        <f>I19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <f>J19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K20" s="5">
-        <f>K19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>22481.071621413801</v>
       </c>
       <c r="L20" s="5">
-        <f>L19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M20" s="5">
-        <f>M19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>12267.269100000007</v>
       </c>
       <c r="N20" s="5">
-        <f>N19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O20" s="5">
-        <f>O19*$U$3</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ref="P20:R20" si="29">P19*$U$3</f>
+        <f t="shared" ref="P20:R20" si="34">P19*$U$3</f>
         <v>4204.6315992000009</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="S20" s="9">
@@ -6773,51 +6858,51 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:O21" si="30">G19/1000</f>
+        <f t="shared" ref="G21:O21" si="35">G19/1000</f>
         <v>33.653837747300059</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ref="H21" si="31">H19/1000</f>
+        <f t="shared" ref="H21" si="36">H19/1000</f>
         <v>31.858842528899999</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>112.40535810706899</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21" si="32">L19/1000</f>
+        <f t="shared" ref="L21" si="37">L19/1000</f>
         <v>0</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>61.336345500000036</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:R21" si="33">P19/1000</f>
+        <f t="shared" ref="P21:R21" si="38">P19/1000</f>
         <v>21.023157996000002</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S21" s="9">
@@ -6841,51 +6926,51 @@
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:O22" si="34">G19*10^6</f>
+        <f t="shared" ref="G22:O22" si="39">G19*10^6</f>
         <v>33653837747.300056</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ref="H22" si="35">H19*10^6</f>
+        <f t="shared" ref="H22" si="40">H19*10^6</f>
         <v>31858842528.899998</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>112405358107.069</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" ref="L22" si="36">L19*10^6</f>
+        <f t="shared" ref="L22" si="41">L19*10^6</f>
         <v>0</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>61336345500.000031</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" ref="P22:R22" si="37">P19*10^6</f>
+        <f t="shared" ref="P22:R22" si="42">P19*10^6</f>
         <v>21023157996</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="S22" s="9">
@@ -6907,55 +6992,55 @@
         <v>0</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23:S23" si="38">G20*10^6</f>
+        <f t="shared" ref="G23:S23" si="43">G20*10^6</f>
         <v>6730767549.4600115</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23" si="39">H20*10^6</f>
+        <f t="shared" ref="H23" si="44">H20*10^6</f>
         <v>6371768505.7799997</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>22481071621.413799</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" ref="L23" si="40">L20*10^6</f>
+        <f t="shared" ref="L23" si="45">L20*10^6</f>
         <v>0</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>12267269100.000008</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" ref="P23:R23" si="41">P20*10^6</f>
+        <f t="shared" ref="P23:R23" si="46">P20*10^6</f>
         <v>4204631599.2000008</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>54412827083.853821</v>
       </c>
     </row>
@@ -7044,51 +7129,51 @@
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:R25" si="42">G24*$S$25</f>
+        <f t="shared" ref="G25:R25" si="47">G24*$S$25</f>
         <v>306521.88821999979</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>45995.979717299881</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>72.379199999999997</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>86919.149599999917</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1125.3662287</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>51792.623999999953</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>13838.272619999994</v>
       </c>
       <c r="S25" s="9">
@@ -7102,59 +7187,59 @@
       <c r="C26" s="58"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5">
-        <f>$U$3*E25</f>
+        <f t="shared" ref="E26:O26" si="48">$U$3*E25</f>
         <v>8485.2261536999995</v>
       </c>
       <c r="F26" s="5">
-        <f>$U$3*F25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G26" s="5">
-        <f>$U$3*G25</f>
+        <f t="shared" si="48"/>
         <v>61304.377643999964</v>
       </c>
       <c r="H26" s="5">
-        <f>$U$3*H25</f>
+        <f t="shared" si="48"/>
         <v>9199.1959434599758</v>
       </c>
       <c r="I26" s="5">
-        <f>$U$3*I25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <f>$U$3*J25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K26" s="5">
-        <f>$U$3*K25</f>
+        <f t="shared" si="48"/>
         <v>14.47584</v>
       </c>
       <c r="L26" s="5">
-        <f>$U$3*L25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="M26" s="5">
-        <f>$U$3*M25</f>
+        <f t="shared" si="48"/>
         <v>17383.829919999986</v>
       </c>
       <c r="N26" s="5">
-        <f>$U$3*N25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="O26" s="5">
-        <f>$U$3*O25</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" ref="P26:R26" si="43">$U$3*P25</f>
+        <f t="shared" ref="P26:R26" si="49">$U$3*P25</f>
         <v>225.07324574</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>10358.524799999992</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>2767.6545239999991</v>
       </c>
       <c r="S26" s="9">
@@ -7178,51 +7263,51 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" ref="G27:O27" si="44">G25/1000</f>
+        <f t="shared" ref="G27:O27" si="50">G25/1000</f>
         <v>306.52188821999977</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" ref="H27" si="45">H25/1000</f>
+        <f t="shared" ref="H27" si="51">H25/1000</f>
         <v>45.995979717299882</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>7.2379199999999991E-2</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" ref="L27" si="46">L25/1000</f>
+        <f t="shared" ref="L27" si="52">L25/1000</f>
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>86.919149599999912</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" ref="P27:R27" si="47">P25/1000</f>
+        <f t="shared" ref="P27:R27" si="53">P25/1000</f>
         <v>1.1253662286999999</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>51.792623999999954</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>13.838272619999994</v>
       </c>
       <c r="S27" s="9">
@@ -7250,55 +7335,55 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" ref="G28:S28" si="48">G25*10^6</f>
+        <f t="shared" ref="G28:S28" si="54">G25*10^6</f>
         <v>306521888219.99982</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" ref="H28" si="49">H25*10^6</f>
+        <f t="shared" ref="H28" si="55">H25*10^6</f>
         <v>45995979717.299881</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>72379200</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" ref="L28" si="50">L25*10^6</f>
+        <f t="shared" ref="L28" si="56">L25*10^6</f>
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>86919149599.999924</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" ref="P28:R28" si="51">P25*10^6</f>
+        <f t="shared" ref="P28:R28" si="57">P25*10^6</f>
         <v>1125366228.7</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>51792623999.999954</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>13838272619.999994</v>
       </c>
       <c r="S28" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>548691790354.49945</v>
       </c>
     </row>
@@ -7324,43 +7409,43 @@
         <v>9199195943.4599762</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29:S29" si="52">$U$3*I28</f>
+        <f t="shared" ref="I29:O29" si="58">$U$3*I28</f>
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>14475840</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" ref="L29" si="53">$U$3*L28</f>
+        <f t="shared" ref="L29" si="59">$U$3*L28</f>
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>17383829919.999985</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" ref="P29:R29" si="54">$U$3*P28</f>
+        <f t="shared" ref="P29:R29" si="60">$U$3*P28</f>
         <v>225073245.74000001</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>10358524799.999992</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2767654523.999999</v>
       </c>
       <c r="S29" s="10">
@@ -7387,27 +7472,27 @@
         <v>0</v>
       </c>
       <c r="G31" s="11">
-        <f t="shared" ref="G31:R31" si="55">(G25-G19)/1</f>
+        <f t="shared" ref="G31:R31" si="61">(G25-G19)/1</f>
         <v>272868.05047269975</v>
       </c>
       <c r="H31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>14137.137188399884</v>
       </c>
       <c r="I31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="J31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-112332.978907069</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" ref="L31" si="56">(L25-L19)/1</f>
+        <f t="shared" ref="L31" si="62">(L25-L19)/1</f>
         <v>0</v>
       </c>
       <c r="M31" s="11">
@@ -7415,23 +7500,23 @@
         <v>25582.804099999885</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="P31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>-19897.791767300001</v>
       </c>
       <c r="Q31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>51792.623999999953</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>13838.272619999994</v>
       </c>
       <c r="S31" s="11"/>
@@ -7523,51 +7608,51 @@
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" ref="G34:R34" si="57">G33*$S$34</f>
+        <f t="shared" ref="G34:R34" si="63">G33*$S$34</f>
         <v>33653.837747300058</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>31858.842528899997</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>112405.358107069</v>
       </c>
       <c r="L34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>61336.345500000032</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>21023.157996000002</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S34" s="9">
@@ -7580,59 +7665,59 @@
       <c r="C35" s="60"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5">
-        <f>E34*$U$3</f>
+        <f t="shared" ref="E35:O35" si="64">E34*$U$3</f>
         <v>2357.3187080000002</v>
       </c>
       <c r="F35" s="5">
-        <f>F34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <f>G34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>6730.7675494600117</v>
       </c>
       <c r="H35" s="5">
-        <f>H34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>6371.7685057799999</v>
       </c>
       <c r="I35" s="5">
-        <f>I34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <f>J34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="K35" s="5">
-        <f>K34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>22481.071621413801</v>
       </c>
       <c r="L35" s="5">
-        <f>L34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="M35" s="5">
-        <f>M34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>12267.269100000007</v>
       </c>
       <c r="N35" s="5">
-        <f>N34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="O35" s="5">
-        <f>O34*$U$3</f>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" ref="P35:R35" si="58">P34*$U$3</f>
+        <f t="shared" ref="P35:R35" si="65">P34*$U$3</f>
         <v>4204.6315992000009</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S35" s="9">
@@ -7649,51 +7734,51 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <f t="shared" ref="G36:O36" si="59">G34/1000</f>
+        <f t="shared" ref="G36:O36" si="66">G34/1000</f>
         <v>33.653837747300059</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" ref="H36" si="60">H34/1000</f>
+        <f t="shared" ref="H36" si="67">H34/1000</f>
         <v>31.858842528899999</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>112.40535810706899</v>
       </c>
       <c r="L36" s="5">
-        <f t="shared" ref="L36" si="61">L34/1000</f>
+        <f t="shared" ref="L36" si="68">L34/1000</f>
         <v>0</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>61.336345500000036</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" ref="P36:R36" si="62">P34/1000</f>
+        <f t="shared" ref="P36:R36" si="69">P34/1000</f>
         <v>21.023157996000002</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S36" s="9">
@@ -7716,51 +7801,51 @@
         <v>0</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" ref="G37:O37" si="63">G34*10^6</f>
+        <f t="shared" ref="G37:O37" si="70">G34*10^6</f>
         <v>33653837747.300056</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" ref="H37" si="64">H34*10^6</f>
+        <f t="shared" ref="H37" si="71">H34*10^6</f>
         <v>31858842528.899998</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>112405358107.069</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" ref="L37" si="65">L34*10^6</f>
+        <f t="shared" ref="L37" si="72">L34*10^6</f>
         <v>0</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>61336345500.000031</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" ref="P37:R37" si="66">P34*10^6</f>
+        <f t="shared" ref="P37:R37" si="73">P34*10^6</f>
         <v>21023157996</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="S37" s="9">
@@ -7781,55 +7866,55 @@
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:S38" si="67">G35*10^6</f>
+        <f t="shared" ref="G38:S38" si="74">G35*10^6</f>
         <v>6730767549.4600115</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ref="H38" si="68">H35*10^6</f>
+        <f t="shared" ref="H38" si="75">H35*10^6</f>
         <v>6371768505.7799997</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>22481071621.413799</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" ref="L38" si="69">L35*10^6</f>
+        <f t="shared" ref="L38" si="76">L35*10^6</f>
         <v>0</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>12267269100.000008</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" ref="P38:R38" si="70">P35*10^6</f>
+        <f t="shared" ref="P38:R38" si="77">P35*10^6</f>
         <v>4204631599.2000008</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>54412827083.853821</v>
       </c>
     </row>
@@ -7915,51 +8000,51 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" ref="G40:R40" si="71">G39*$S$40</f>
+        <f t="shared" ref="G40:R40" si="78">G39*$S$40</f>
         <v>315164.95827599993</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>99584.635701699954</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>12.211649999999999</v>
       </c>
       <c r="L40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>34122.243000000002</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>1612.1993500000001</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>63744.76799999996</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="78"/>
         <v>7285.1117999999988</v>
       </c>
       <c r="S40" s="9">
@@ -7972,59 +8057,59 @@
       <c r="C41" s="60"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5">
-        <f>$U$3*E40</f>
+        <f t="shared" ref="E41:O41" si="79">$U$3*E40</f>
         <v>12689.675699720001</v>
       </c>
       <c r="F41" s="5">
-        <f>$U$3*F40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <f>$U$3*G40</f>
+        <f t="shared" si="79"/>
         <v>63032.991655199992</v>
       </c>
       <c r="H41" s="5">
-        <f>$U$3*H40</f>
+        <f t="shared" si="79"/>
         <v>19916.927140339991</v>
       </c>
       <c r="I41" s="5">
-        <f>$U$3*I40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J41" s="5">
-        <f>$U$3*J40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K41" s="5">
-        <f>$U$3*K40</f>
+        <f t="shared" si="79"/>
         <v>2.4423300000000001</v>
       </c>
       <c r="L41" s="5">
-        <f>$U$3*L40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M41" s="5">
-        <f>$U$3*M40</f>
+        <f t="shared" si="79"/>
         <v>6824.4486000000006</v>
       </c>
       <c r="N41" s="5">
-        <f>$U$3*N40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="O41" s="5">
-        <f>$U$3*O40</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" ref="P41:R41" si="72">$U$3*P40</f>
+        <f t="shared" ref="P41:R41" si="80">$U$3*P40</f>
         <v>322.43987000000004</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>12748.953599999993</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>1457.0223599999999</v>
       </c>
       <c r="S41" s="9">
@@ -8047,51 +8132,51 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" ref="G42:O42" si="73">G40/1000</f>
+        <f t="shared" ref="G42:O42" si="81">G40/1000</f>
         <v>315.16495827599994</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" ref="H42" si="74">H40/1000</f>
+        <f t="shared" ref="H42" si="82">H40/1000</f>
         <v>99.584635701699952</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1.2211649999999999E-2</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" ref="L42" si="75">L40/1000</f>
+        <f t="shared" ref="L42" si="83">L40/1000</f>
         <v>0</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>34.122243000000005</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42:R42" si="76">P40/1000</f>
+        <f t="shared" ref="P42:R42" si="84">P40/1000</f>
         <v>1.61219935</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>63.744767999999958</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>7.2851117999999984</v>
       </c>
       <c r="S42" s="9">
@@ -8119,55 +8204,55 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" ref="G43:S43" si="77">G40*10^6</f>
+        <f t="shared" ref="G43:S43" si="85">G40*10^6</f>
         <v>315164958275.99994</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" ref="H43" si="78">H40*10^6</f>
+        <f t="shared" ref="H43" si="86">H40*10^6</f>
         <v>99584635701.699951</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>12211649.999999998</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" ref="L43" si="79">L40*10^6</f>
+        <f t="shared" ref="L43" si="87">L40*10^6</f>
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>34122243000.000004</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" ref="P43:R43" si="80">P40*10^6</f>
+        <f t="shared" ref="P43:R43" si="88">P40*10^6</f>
         <v>1612199350</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>63744767999.999962</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>7285111799.999999</v>
       </c>
       <c r="S43" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>584974506276.29993</v>
       </c>
     </row>
@@ -8193,47 +8278,47 @@
         <v>19916927140.339993</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" ref="I44:S44" si="81">$U$3*I43</f>
+        <f t="shared" ref="I44:S44" si="89">$U$3*I43</f>
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>2442329.9999999995</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" ref="L44" si="82">$U$3*L43</f>
+        <f t="shared" ref="L44" si="90">$U$3*L43</f>
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>6824448600.000001</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" ref="P44:R44" si="83">$U$3*P43</f>
+        <f t="shared" ref="P44:R44" si="91">$U$3*P43</f>
         <v>322439870</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>12748953599.999992</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>1457022360</v>
       </c>
       <c r="S44" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>116994901255.25999</v>
       </c>
     </row>
@@ -8256,51 +8341,51 @@
         <v>0</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" ref="G46:R46" si="84">(G40-G34)/1</f>
+        <f t="shared" ref="G46:R46" si="92">(G40-G34)/1</f>
         <v>281511.12052869989</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>67725.793172799953</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>-112393.146457069</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ref="L46" si="85">(L40-L34)/1</f>
+        <f t="shared" ref="L46" si="93">(L40-L34)/1</f>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>-27214.10250000003</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>-19410.958646000003</v>
       </c>
       <c r="Q46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>63744.76799999996</v>
       </c>
       <c r="R46" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>7285.1117999999988</v>
       </c>
       <c r="S46" s="11"/>
@@ -8392,51 +8477,51 @@
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" ref="G49:R49" si="86">G48*$S$49</f>
+        <f t="shared" ref="G49:R49" si="94">G48*$S$49</f>
         <v>33653.837747300058</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>31858.842528899997</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>112405.358107069</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>61336.345500000032</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>21023.157996000002</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="S49" s="9">
@@ -8449,59 +8534,59 @@
       <c r="C50" s="60"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5">
-        <f>E49*$U$3</f>
+        <f t="shared" ref="E50:O50" si="95">E49*$U$3</f>
         <v>2357.3187080000002</v>
       </c>
       <c r="F50" s="5">
-        <f>F49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <f>G49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>6730.7675494600117</v>
       </c>
       <c r="H50" s="5">
-        <f>H49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>6371.7685057799999</v>
       </c>
       <c r="I50" s="5">
-        <f>I49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>J49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="K50" s="5">
-        <f>K49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>22481.071621413801</v>
       </c>
       <c r="L50" s="5">
-        <f>L49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="M50" s="5">
-        <f>M49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>12267.269100000007</v>
       </c>
       <c r="N50" s="5">
-        <f>N49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <f>O49*$U$3</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" ref="P50:R50" si="87">P49*$U$3</f>
+        <f t="shared" ref="P50:R50" si="96">P49*$U$3</f>
         <v>4204.6315992000009</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="S50" s="9">
@@ -8518,51 +8603,51 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5">
-        <f t="shared" ref="G51:O51" si="88">G49/1000</f>
+        <f t="shared" ref="G51:O51" si="97">G49/1000</f>
         <v>33.653837747300059</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" ref="H51" si="89">H49/1000</f>
+        <f t="shared" ref="H51" si="98">H49/1000</f>
         <v>31.858842528899999</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="K51" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>112.40535810706899</v>
       </c>
       <c r="L51" s="5">
-        <f t="shared" ref="L51" si="90">L49/1000</f>
+        <f t="shared" ref="L51" si="99">L49/1000</f>
         <v>0</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>61.336345500000036</v>
       </c>
       <c r="N51" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" ref="P51:R51" si="91">P49/1000</f>
+        <f t="shared" ref="P51:R51" si="100">P49/1000</f>
         <v>21.023157996000002</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="S51" s="9">
@@ -8585,51 +8670,51 @@
         <v>0</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" ref="G52:O52" si="92">G49*10^6</f>
+        <f t="shared" ref="G52:O52" si="101">G49*10^6</f>
         <v>33653837747.300056</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" ref="H52" si="93">H49*10^6</f>
+        <f t="shared" ref="H52" si="102">H49*10^6</f>
         <v>31858842528.899998</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="K52" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>112405358107.069</v>
       </c>
       <c r="L52" s="5">
-        <f t="shared" ref="L52" si="94">L49*10^6</f>
+        <f t="shared" ref="L52" si="103">L49*10^6</f>
         <v>0</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>61336345500.000031</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" ref="P52:R52" si="95">P49*10^6</f>
+        <f t="shared" ref="P52:R52" si="104">P49*10^6</f>
         <v>21023157996</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="S52" s="9">
@@ -8650,55 +8735,55 @@
         <v>0</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" ref="G53:S53" si="96">G50*10^6</f>
+        <f t="shared" ref="G53:S53" si="105">G50*10^6</f>
         <v>6730767549.4600115</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" ref="H53" si="97">H50*10^6</f>
+        <f t="shared" ref="H53" si="106">H50*10^6</f>
         <v>6371768505.7799997</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>22481071621.413799</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" ref="L53" si="98">L50*10^6</f>
+        <f t="shared" ref="L53" si="107">L50*10^6</f>
         <v>0</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>12267269100.000008</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>0</v>
       </c>
       <c r="P53" s="5">
-        <f t="shared" ref="P53:R53" si="99">P50*10^6</f>
+        <f t="shared" ref="P53:R53" si="108">P50*10^6</f>
         <v>4204631599.2000008</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="99"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>54412827083.853821</v>
       </c>
     </row>
@@ -8784,51 +8869,51 @@
         <v>0</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" ref="G55:R55" si="100">G54*$S$55</f>
+        <f t="shared" ref="G55:R55" si="109">G54*$S$55</f>
         <v>246936.24058399981</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>59909.216794800013</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>60443.165093199998</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>61748.340400000037</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>6675.4475140000013</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R55" s="5">
-        <f t="shared" si="100"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="S55" s="9">
@@ -8841,59 +8926,59 @@
       <c r="C56" s="60"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5">
-        <f>$U$3*E55</f>
+        <f t="shared" ref="E56:O56" si="110">$U$3*E55</f>
         <v>5440.5441917800017</v>
       </c>
       <c r="F56" s="5">
-        <f>$U$3*F55</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="G56" s="5">
-        <f>$U$3*G55</f>
+        <f t="shared" si="110"/>
         <v>49387.248116799965</v>
       </c>
       <c r="H56" s="5">
-        <f>$U$3*H55</f>
+        <f t="shared" si="110"/>
         <v>11981.843358960003</v>
       </c>
       <c r="I56" s="5">
-        <f>$U$3*I55</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="J56" s="5">
-        <f>$U$3*J55</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="K56" s="5">
-        <f>$U$3*K55</f>
+        <f t="shared" si="110"/>
         <v>12088.633018640001</v>
       </c>
       <c r="L56" s="5">
-        <f>$U$3*L55</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M56" s="5">
-        <f>$U$3*M55</f>
+        <f t="shared" si="110"/>
         <v>12349.668080000009</v>
       </c>
       <c r="N56" s="5">
-        <f>$U$3*N55</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O56" s="5">
-        <f>$U$3*O55</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" ref="P56:R56" si="101">$U$3*P55</f>
+        <f t="shared" ref="P56:R56" si="111">$U$3*P55</f>
         <v>1335.0895028000004</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="101"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="S56" s="9">
@@ -8916,51 +9001,51 @@
         <v>0</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" ref="G57:O57" si="102">G55/1000</f>
+        <f t="shared" ref="G57:O57" si="112">G55/1000</f>
         <v>246.93624058399982</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" ref="H57" si="103">H55/1000</f>
+        <f t="shared" ref="H57" si="113">H55/1000</f>
         <v>59.909216794800017</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="J57" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>60.443165093199994</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" ref="L57" si="104">L55/1000</f>
+        <f t="shared" ref="L57" si="114">L55/1000</f>
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>61.748340400000039</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" ref="P57:R57" si="105">P55/1000</f>
+        <f t="shared" ref="P57:R57" si="115">P55/1000</f>
         <v>6.6754475140000009</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="S57" s="9">
@@ -8988,55 +9073,55 @@
         <v>0</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" ref="G58:S58" si="106">G55*10^6</f>
+        <f t="shared" ref="G58:S58" si="116">G55*10^6</f>
         <v>246936240583.99982</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" ref="H58" si="107">H55*10^6</f>
+        <f t="shared" ref="H58" si="117">H55*10^6</f>
         <v>59909216794.800011</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>60443165093.199997</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" ref="L58" si="108">L55*10^6</f>
+        <f t="shared" ref="L58" si="118">L55*10^6</f>
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>61748340400.000038</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" ref="P58:R58" si="109">P55*10^6</f>
+        <f t="shared" ref="P58:R58" si="119">P55*10^6</f>
         <v>6675447514.000001</v>
       </c>
       <c r="Q58" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="R58" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="S58" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="116"/>
         <v>462915131344.8999</v>
       </c>
     </row>
@@ -9062,47 +9147,47 @@
         <v>11981843358.960003</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" ref="I59:S59" si="110">$U$3*I58</f>
+        <f t="shared" ref="I59:S59" si="120">$U$3*I58</f>
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>12088633018.639999</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" ref="L59" si="111">$U$3*L58</f>
+        <f t="shared" ref="L59" si="121">$U$3*L58</f>
         <v>0</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>12349668080.000008</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" ref="P59:R59" si="112">$U$3*P58</f>
+        <f t="shared" ref="P59:R59" si="122">$U$3*P58</f>
         <v>1335089502.8000002</v>
       </c>
       <c r="Q59" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="R59" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="S59" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="120"/>
         <v>92583026268.97998</v>
       </c>
     </row>
@@ -9128,47 +9213,47 @@
         <v>6.3375358388007532</v>
       </c>
       <c r="H61" s="11">
-        <f t="shared" ref="H61:R61" si="113">(H55-H49)/H49</f>
+        <f t="shared" ref="H61:R61" si="123">(H55-H49)/H49</f>
         <v>0.88045804678731754</v>
       </c>
       <c r="I61" s="11" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="11" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>-0.46227505422271487</v>
       </c>
       <c r="L61" s="11" t="e">
-        <f t="shared" ref="L61" si="114">(L55-L49)/L49</f>
+        <f t="shared" ref="L61" si="124">(L55-L49)/L49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M61" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>6.7169782718796787E-3</v>
       </c>
       <c r="N61" s="11" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O61" s="11" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P61" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>-0.68247170499931009</v>
       </c>
       <c r="Q61" s="11" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R61" s="11" t="e">
-        <f t="shared" si="113"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S61" s="11"/>
@@ -10103,7 +10188,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="26">
-        <f t="shared" ref="C15:C21" si="9">C8/SUM($C$5:$C$12)</f>
+        <f t="shared" ref="C17:C21" si="9">C8/SUM($C$5:$C$12)</f>
         <v>0</v>
       </c>
       <c r="D17" s="26"/>
